--- a/STM32_DEVBOARD_PCB/Calculations.xlsx
+++ b/STM32_DEVBOARD_PCB/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Dropbox\01_PROJECTS\23_STM32_DEVBOAD\STM32_DEVBOARD\STM32_DEVBOARD_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683EA8EE-1C52-40EB-8AA8-BD54C3C650A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836D8031-302C-4339-A55C-DCE37740CCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7485F1A-B8FE-4240-9BD5-1E9E28880CD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>SYSCLOCK</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>Clock Calculations</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
 </sst>
 </file>
@@ -427,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4705E617-86C2-41E4-995F-7EB0B35BEC48}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,17 +455,17 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -462,12 +477,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -476,12 +491,13 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>0.5</v>
+        <f>1/C9</f>
+        <v>3.8314176245210726E-3</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -490,13 +506,13 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2">
         <f>(C6*C4*1000000)/C5</f>
-        <v>2500</v>
+        <v>30651.340996168579</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -504,6 +520,65 @@
       <c r="F7" s="2">
         <f>(F5*F6)/(F4*1000000)</f>
         <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <f>(1000)/(E14-F14)</f>
+        <v>2.1724490017596836E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>61069</v>
+      </c>
+      <c r="F14">
+        <v>15038</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>E18*I12+F14</f>
+        <v>15059.724490017597</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
